--- a/pmg.xlsx
+++ b/pmg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GEP_Projects\SSDL-7658\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B3F38DF-85B5-4CD1-8CE8-20697E4426F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3718F2-16A1-48D9-88DA-7B5FC966EF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9D74CA5A-B0F9-431D-A186-5666A6200809}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>Actual Column Name</t>
   </si>
@@ -179,13 +179,55 @@
   </si>
   <si>
     <t>CREATED_DATE</t>
+  </si>
+  <si>
+    <t>Record Entry Date</t>
+  </si>
+  <si>
+    <t>Record Modified Date</t>
+  </si>
+  <si>
+    <t>Display column name</t>
+  </si>
+  <si>
+    <t>Actual column name</t>
+  </si>
+  <si>
+    <t>2221-2222-7711</t>
+  </si>
+  <si>
+    <t>Map Fields</t>
+  </si>
+  <si>
+    <t>ActivityId</t>
+  </si>
+  <si>
+    <t>EventId</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>MainTableColumn</t>
+  </si>
+  <si>
+    <t>MapFields</t>
+  </si>
+  <si>
+    <t>InsertToMain</t>
+  </si>
+  <si>
+    <t>UpdateInMain</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +248,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -275,11 +325,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -296,9 +381,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731AB1E6-BCB2-4C2A-BE9C-4BD92430DB07}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,9 +724,14 @@
     <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +743,7 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -649,8 +753,14 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -663,8 +773,14 @@
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -674,11 +790,26 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -688,43 +819,82 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>2200</v>
+      </c>
+      <c r="J5">
+        <v>2221</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>2200</v>
+      </c>
+      <c r="J6">
+        <v>2222</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>7700</v>
+      </c>
+      <c r="J7">
+        <v>7711</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -733,12 +903,24 @@
       <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <v>2200</v>
+      </c>
+      <c r="J8">
+        <v>2221</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -747,36 +929,66 @@
       <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>2200</v>
+      </c>
+      <c r="J9">
+        <v>2222</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>7700</v>
+      </c>
+      <c r="J10">
+        <v>7711</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -786,11 +998,17 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -800,11 +1018,17 @@
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -814,11 +1038,17 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -828,11 +1058,17 @@
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -842,11 +1078,14 @@
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -856,11 +1095,20 @@
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -870,11 +1118,20 @@
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -884,11 +1141,20 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -898,8 +1164,20 @@
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
@@ -909,8 +1187,20 @@
       <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
@@ -919,6 +1209,50 @@
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
